--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S14/S14_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S14/S14_lossmod.xlsx
@@ -14,144 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.02458387497162827</t>
-  </si>
-  <si>
-    <t>0.037155293179908684</t>
-  </si>
-  <si>
-    <t>0.06259029927407701</t>
-  </si>
-  <si>
-    <t>0.14615658795070458</t>
-  </si>
-  <si>
-    <t>0.22329036717100514</t>
-  </si>
-  <si>
-    <t>0.34651516183762976</t>
-  </si>
-  <si>
-    <t>0.5563484119179234</t>
-  </si>
-  <si>
-    <t>0.8498920122294105</t>
-  </si>
-  <si>
-    <t>1.340932781079656</t>
-  </si>
-  <si>
-    <t>2.1180702828031555</t>
-  </si>
-  <si>
-    <t>3.3435001930881203</t>
-  </si>
-  <si>
-    <t>5.1079629687256265</t>
-  </si>
-  <si>
-    <t>8.330204521596222</t>
-  </si>
-  <si>
-    <t>13.149172834503561</t>
-  </si>
-  <si>
-    <t>20.09343182332625</t>
-  </si>
-  <si>
-    <t>31.722417877462565</t>
-  </si>
-  <si>
-    <t>50.0866306426568</t>
-  </si>
-  <si>
-    <t>79.08194699484844</t>
-  </si>
-  <si>
-    <t>122.85892033936265</t>
-  </si>
-  <si>
-    <t>190.90359405881213</t>
-  </si>
-  <si>
-    <t>301.37015806907095</t>
-  </si>
-  <si>
-    <t>468.27025549299765</t>
-  </si>
-  <si>
-    <t>10319.188847078674</t>
-  </si>
-  <si>
-    <t>11640.546201268296</t>
-  </si>
-  <si>
-    <t>14085.416225107272</t>
-  </si>
-  <si>
-    <t>17026.77100948923</t>
-  </si>
-  <si>
-    <t>19604.296649202417</t>
-  </si>
-  <si>
-    <t>25673.61544116581</t>
-  </si>
-  <si>
-    <t>25884.075476281116</t>
-  </si>
-  <si>
-    <t>30264.315063126698</t>
-  </si>
-  <si>
-    <t>37917.71583071154</t>
-  </si>
-  <si>
-    <t>38230.45607946378</t>
-  </si>
-  <si>
-    <t>43491.93005845022</t>
-  </si>
-  <si>
-    <t>50191.42597315556</t>
-  </si>
-  <si>
-    <t>58000.4772354782</t>
-  </si>
-  <si>
-    <t>66517.72085835677</t>
-  </si>
-  <si>
-    <t>73133.88852578017</t>
-  </si>
-  <si>
-    <t>81332.85460241338</t>
-  </si>
-  <si>
-    <t>88728.74485756885</t>
-  </si>
-  <si>
-    <t>96797.17012866215</t>
-  </si>
-  <si>
-    <t>102602.78016350538</t>
-  </si>
-  <si>
-    <t>105057.56916064757</t>
-  </si>
-  <si>
-    <t>118190.92020135668</t>
-  </si>
-  <si>
-    <t>121614.6721262875</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -524,179 +392,179 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
+      <c r="A2">
+        <v>0.02458387497162827</v>
+      </c>
+      <c r="B2">
+        <v>10319.18884707867</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
+      <c r="A3">
+        <v>0.03715529317990868</v>
+      </c>
+      <c r="B3">
+        <v>11640.5462012683</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
+      <c r="A4">
+        <v>0.06259029927407701</v>
+      </c>
+      <c r="B4">
+        <v>14085.41622510727</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
+      <c r="A5">
+        <v>0.1461565879507046</v>
+      </c>
+      <c r="B5">
+        <v>17026.77100948923</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
+      <c r="A6">
+        <v>0.2232903671710051</v>
+      </c>
+      <c r="B6">
+        <v>19604.29664920242</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
+      <c r="A7">
+        <v>0.3465151618376298</v>
+      </c>
+      <c r="B7">
+        <v>25673.61544116581</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
+      <c r="A8">
+        <v>0.5563484119179234</v>
+      </c>
+      <c r="B8">
+        <v>25884.07547628112</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
+      <c r="A9">
+        <v>0.8498920122294105</v>
+      </c>
+      <c r="B9">
+        <v>30264.3150631267</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
+      <c r="A10">
+        <v>1.340932781079656</v>
+      </c>
+      <c r="B10">
+        <v>37917.71583071154</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
+      <c r="A11">
+        <v>2.118070282803155</v>
+      </c>
+      <c r="B11">
+        <v>38230.45607946378</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
+      <c r="A12">
+        <v>3.34350019308812</v>
+      </c>
+      <c r="B12">
+        <v>43491.93005845022</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
+      <c r="A13">
+        <v>5.107962968725626</v>
+      </c>
+      <c r="B13">
+        <v>50191.42597315556</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+      <c r="A14">
+        <v>8.330204521596222</v>
+      </c>
+      <c r="B14">
+        <v>58000.4772354782</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
+      <c r="A15">
+        <v>13.14917283450356</v>
+      </c>
+      <c r="B15">
+        <v>66517.72085835677</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
+      <c r="A16">
+        <v>20.09343182332625</v>
+      </c>
+      <c r="B16">
+        <v>73133.88852578017</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
+      <c r="A17">
+        <v>31.72241787746256</v>
+      </c>
+      <c r="B17">
+        <v>81332.85460241338</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
+      <c r="A18">
+        <v>50.0866306426568</v>
+      </c>
+      <c r="B18">
+        <v>88728.74485756885</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
+      <c r="A19">
+        <v>79.08194699484844</v>
+      </c>
+      <c r="B19">
+        <v>96797.17012866215</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
+      <c r="A20">
+        <v>122.8589203393627</v>
+      </c>
+      <c r="B20">
+        <v>102602.7801635054</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
+      <c r="A21">
+        <v>190.9035940588121</v>
+      </c>
+      <c r="B21">
+        <v>105057.5691606476</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
+      <c r="A22">
+        <v>301.370158069071</v>
+      </c>
+      <c r="B22">
+        <v>118190.9202013567</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
+      <c r="A23">
+        <v>468.2702554929976</v>
+      </c>
+      <c r="B23">
+        <v>121614.6721262875</v>
       </c>
     </row>
   </sheetData>
